--- a/TestData/Data/WorkGroup.xlsx
+++ b/TestData/Data/WorkGroup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fouad.Systems\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Trainning_Institution_System\1-Cplus\TestData\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Nom du conseil ou comité</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>31/10/2018 22:05:17</t>
+  </si>
+  <si>
+    <t>31/10/2018 22:10:17</t>
   </si>
   <si>
     <t>Administration</t>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,18 +648,18 @@
         <v>28</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -671,39 +674,39 @@
         <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
         <v>29</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
         <v>23</v>
@@ -715,19 +718,19 @@
         <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
